--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6FAFA-EF2B-4F0D-B43A-922BBC9EDEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E2D92-12CC-4311-A507-58FAD583937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="13" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC033D0-901F-4602-9B4C-11B0D8D62A31}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,36 +2027,255 @@
         <v>153000(1350)</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21" si="36">B21*10</f>
+        <f t="shared" ref="P21:P24" si="36">B21*10</f>
         <v>152500</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="37">P21-G21</f>
+        <f t="shared" ref="Q21:Q24" si="37">P21-G21</f>
         <v>850</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21" si="38">C21*15</f>
+        <f t="shared" ref="R21:R24" si="38">C21*15</f>
         <v>152250</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21" si="39">R21-G21</f>
+        <f t="shared" ref="S21:S24" si="39">R21-G21</f>
         <v>600</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21" si="40">D21*25</f>
+        <f t="shared" ref="T21:T24" si="40">D21*25</f>
         <v>152500</v>
       </c>
       <c r="U21">
-        <f t="shared" ref="U21" si="41">T21-G21</f>
+        <f t="shared" ref="U21:U24" si="41">T21-G21</f>
         <v>850</v>
       </c>
       <c r="V21">
-        <f t="shared" ref="V21" si="42">E21*45</f>
+        <f t="shared" ref="V21:V24" si="42">E21*45</f>
         <v>153000</v>
       </c>
       <c r="W21">
-        <f t="shared" ref="W21" si="43">V21-G21</f>
+        <f t="shared" ref="W21:W24" si="43">V21-G21</f>
         <v>1350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>19800</v>
+      </c>
+      <c r="C22">
+        <v>13200</v>
+      </c>
+      <c r="D22">
+        <v>7950</v>
+      </c>
+      <c r="E22">
+        <v>4400</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F24" si="44">SUM(B22:E22)</f>
+        <v>45350</v>
+      </c>
+      <c r="G22" s="1">
+        <f>SUM($F$2:F22)</f>
+        <v>197000</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H24" si="45">_xlfn.CONCAT(P22, "(", Q22,")")</f>
+        <v>198000(1000)</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I24" si="46">_xlfn.CONCAT(R22, "(", S22,")")</f>
+        <v>198000(1000)</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22:J24" si="47">_xlfn.CONCAT(T22, "(", U22,")")</f>
+        <v>198750(1750)</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K24" si="48">_xlfn.CONCAT(V22, "(", W22,")")</f>
+        <v>198000(1000)</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="36"/>
+        <v>198000</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="38"/>
+        <v>198000</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="39"/>
+        <v>1000</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="40"/>
+        <v>198750</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="41"/>
+        <v>1750</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="42"/>
+        <v>198000</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="43"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>25700</v>
+      </c>
+      <c r="C23">
+        <v>17200</v>
+      </c>
+      <c r="D23">
+        <v>10300</v>
+      </c>
+      <c r="E23">
+        <v>5750</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="44"/>
+        <v>58950</v>
+      </c>
+      <c r="G23" s="1">
+        <f>SUM($F$2:F23)</f>
+        <v>255950</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="45"/>
+        <v>257000(1050)</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="46"/>
+        <v>258000(2050)</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="47"/>
+        <v>257500(1550)</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="48"/>
+        <v>258750(2800)</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="36"/>
+        <v>257000</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="37"/>
+        <v>1050</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="38"/>
+        <v>258000</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="39"/>
+        <v>2050</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="40"/>
+        <v>257500</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="41"/>
+        <v>1550</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="42"/>
+        <v>258750</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="43"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>33500</v>
+      </c>
+      <c r="C24">
+        <v>22300</v>
+      </c>
+      <c r="D24">
+        <v>13400</v>
+      </c>
+      <c r="E24">
+        <v>7450</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="44"/>
+        <v>76650</v>
+      </c>
+      <c r="G24" s="1">
+        <f>SUM($F$2:F24)</f>
+        <v>332600</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="45"/>
+        <v>335000(2400)</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="46"/>
+        <v>334500(1900)</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="47"/>
+        <v>335000(2400)</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="48"/>
+        <v>335250(2650)</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="36"/>
+        <v>335000</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="37"/>
+        <v>2400</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="38"/>
+        <v>334500</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="39"/>
+        <v>1900</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="40"/>
+        <v>335000</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="41"/>
+        <v>2400</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="42"/>
+        <v>335250</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="43"/>
+        <v>2650</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45226F75-130C-494D-864C-7CB650862C6D}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -4173,7 +4392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -7130,8 +7349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFA0BE-7EC6-435D-A0ED-2A73F438E415}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,7 +7402,7 @@
         <v>1200</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10087,7 +10306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79893292-557B-4253-8167-4421586F24A1}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B122"/>
     </sheetView>
   </sheetViews>
@@ -13044,8 +13263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A873C-7C48-476D-9E21-58D8DD43211F}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="R213" sqref="R213"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13157,7 +13376,7 @@
         <v>2100</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I4">
         <v>283</v>
@@ -18523,8 +18742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76277A36-1C7D-4579-B642-BFA48C7F2592}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27577,8 +27796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC0D84-9460-46CC-B2AE-5F199CCF7404}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27633,7 +27852,7 @@
         <v>450</v>
       </c>
       <c r="H2">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -30651,7 +30870,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30703,7 +30922,7 @@
         <v>700</v>
       </c>
       <c r="H2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -30760,10 +30979,10 @@
         <v>600</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E2D92-12CC-4311-A507-58FAD583937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BEDDA-A00E-4549-98FF-28BBCC099AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
   <si>
     <t>x10</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC033D0-901F-4602-9B4C-11B0D8D62A31}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45226F75-130C-494D-864C-7CB650862C6D}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -4393,7 +4396,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="A2" sqref="A2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7349,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFA0BE-7EC6-435D-A0ED-2A73F438E415}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -7407,7 +7410,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -7437,7 +7440,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -7467,7 +7470,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -7491,7 +7494,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -7539,7 +7542,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -7587,7 +7590,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -7611,7 +7614,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -7635,7 +7638,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -7659,7 +7662,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -7683,7 +7686,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -7707,7 +7710,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -7731,7 +7734,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -7755,7 +7758,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -7779,7 +7782,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -7803,7 +7806,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>150</v>
@@ -7827,7 +7830,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>150</v>
@@ -7875,7 +7878,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>150</v>
@@ -7899,7 +7902,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>150</v>
@@ -7923,7 +7926,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>150</v>
@@ -7947,7 +7950,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>150</v>
@@ -7971,7 +7974,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>150</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -8019,7 +8022,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -8067,7 +8070,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -8091,7 +8094,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -8115,7 +8118,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -8187,7 +8190,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>250</v>
@@ -8211,7 +8214,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>250</v>
@@ -8235,7 +8238,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>250</v>
@@ -8259,7 +8262,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -8283,7 +8286,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -8307,7 +8310,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -8331,7 +8334,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -8355,7 +8358,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>350</v>
@@ -8379,7 +8382,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>350</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>350</v>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>350</v>
@@ -8451,7 +8454,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>400</v>
@@ -8475,7 +8478,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>400</v>
@@ -8499,7 +8502,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>400</v>
@@ -8523,7 +8526,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>450</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>450</v>
@@ -8571,7 +8574,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>450</v>
@@ -8595,7 +8598,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>500</v>
@@ -8619,7 +8622,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>500</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>550</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>550</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>600</v>
@@ -8715,7 +8718,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>600</v>
@@ -8739,7 +8742,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>650</v>
@@ -8763,7 +8766,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>650</v>
@@ -8787,7 +8790,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>700</v>
@@ -8811,7 +8814,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>700</v>
@@ -8835,7 +8838,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B62">
         <v>750</v>
@@ -8859,7 +8862,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>750</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>800</v>
@@ -8907,7 +8910,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>850</v>
@@ -8931,7 +8934,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B66">
         <v>850</v>
@@ -8955,7 +8958,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B67">
         <v>900</v>
@@ -8979,7 +8982,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B68">
         <v>950</v>
@@ -9003,7 +9006,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>1000</v>
@@ -9027,7 +9030,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>1050</v>
@@ -9051,7 +9054,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>1050</v>
@@ -9075,7 +9078,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>1100</v>
@@ -9099,7 +9102,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>1150</v>
@@ -9123,7 +9126,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B74">
         <v>1200</v>
@@ -9147,7 +9150,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>1250</v>
@@ -9171,7 +9174,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>1300</v>
@@ -9195,7 +9198,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>1350</v>
@@ -9219,7 +9222,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>1400</v>
@@ -9243,7 +9246,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>1500</v>
@@ -9267,7 +9270,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>1550</v>
@@ -9291,7 +9294,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>1600</v>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>1650</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>1750</v>
@@ -9363,7 +9366,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>1800</v>
@@ -9387,7 +9390,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>1900</v>
@@ -9411,7 +9414,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B86">
         <v>1950</v>
@@ -9435,7 +9438,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B87">
         <v>2050</v>
@@ -9459,7 +9462,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B88">
         <v>2150</v>
@@ -9483,7 +9486,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B89">
         <v>2250</v>
@@ -9507,7 +9510,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B90">
         <v>2300</v>
@@ -9531,7 +9534,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B91">
         <v>2400</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B92">
         <v>2500</v>
@@ -9579,7 +9582,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B93">
         <v>2600</v>
@@ -9603,7 +9606,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B94">
         <v>2750</v>
@@ -9627,7 +9630,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>2850</v>
@@ -9651,7 +9654,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B96">
         <v>2950</v>
@@ -9675,7 +9678,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B97">
         <v>3100</v>
@@ -9699,7 +9702,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B98">
         <v>3200</v>
@@ -9723,7 +9726,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>3350</v>
@@ -9747,7 +9750,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>3500</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B101">
         <v>3650</v>
@@ -9795,7 +9798,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>3800</v>
@@ -9819,7 +9822,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>3950</v>
@@ -9843,7 +9846,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B104">
         <v>4100</v>
@@ -9867,7 +9870,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>4300</v>
@@ -9891,7 +9894,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>4450</v>
@@ -9915,7 +9918,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B107">
         <v>4650</v>
@@ -9939,7 +9942,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>4850</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>5050</v>
@@ -9987,7 +9990,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>5250</v>
@@ -10011,7 +10014,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B111">
         <v>5450</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B112">
         <v>5700</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B113">
         <v>5950</v>
@@ -10083,7 +10086,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>6200</v>
@@ -10107,7 +10110,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B115">
         <v>6450</v>
@@ -10131,7 +10134,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B116">
         <v>6700</v>
@@ -10155,7 +10158,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B117">
         <v>7000</v>
@@ -10179,7 +10182,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B118">
         <v>7300</v>
@@ -10203,7 +10206,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B119">
         <v>7600</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B120">
         <v>7900</v>
@@ -10251,7 +10254,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>8250</v>
@@ -10275,7 +10278,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B122">
         <v>8550</v>
@@ -10306,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79893292-557B-4253-8167-4421586F24A1}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B122"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13263,13 +13266,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A873C-7C48-476D-9E21-58D8DD43211F}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -13294,10 +13298,13 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -13321,10 +13328,13 @@
       <c r="H2">
         <v>257</v>
       </c>
+      <c r="I2">
+        <v>292</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -13354,7 +13364,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -13384,7 +13394,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -13408,7 +13418,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -13432,7 +13442,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -13456,7 +13466,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -13480,7 +13490,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -13504,7 +13514,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -13528,7 +13538,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -13552,7 +13562,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -13576,7 +13586,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -13600,7 +13610,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -13624,7 +13634,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -13648,7 +13658,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -13672,7 +13682,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -13696,7 +13706,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -13720,7 +13730,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -13744,7 +13754,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -13768,7 +13778,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -13792,7 +13802,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -13816,7 +13826,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -13840,7 +13850,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -13864,7 +13874,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -13888,7 +13898,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -13912,7 +13922,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -13936,7 +13946,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -13960,7 +13970,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -13984,7 +13994,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -14008,7 +14018,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -14032,7 +14042,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -14056,7 +14066,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -14080,7 +14090,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -14104,7 +14114,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -14128,7 +14138,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="B36">
         <v>100</v>
@@ -14152,7 +14162,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="B37">
         <v>100</v>
@@ -14176,7 +14186,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -14200,7 +14210,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -14224,7 +14234,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -14248,7 +14258,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="B41">
         <v>100</v>
@@ -14272,7 +14282,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="B42">
         <v>100</v>
@@ -14296,7 +14306,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -14320,7 +14330,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -14344,7 +14354,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="B45">
         <v>100</v>
@@ -14368,7 +14378,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="B46">
         <v>100</v>
@@ -14392,7 +14402,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="B47">
         <v>100</v>
@@ -14416,7 +14426,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="B48">
         <v>100</v>
@@ -14440,7 +14450,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="B49">
         <v>150</v>
@@ -14464,7 +14474,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="B50">
         <v>150</v>
@@ -14488,7 +14498,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="B51">
         <v>150</v>
@@ -14512,7 +14522,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="B52">
         <v>150</v>
@@ -14536,7 +14546,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B53">
         <v>150</v>
@@ -14560,7 +14570,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="B54">
         <v>150</v>
@@ -14584,7 +14594,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="B55">
         <v>150</v>
@@ -14608,7 +14618,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="B56">
         <v>150</v>
@@ -14632,7 +14642,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="B57">
         <v>150</v>
@@ -14656,7 +14666,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="B58">
         <v>150</v>
@@ -14680,7 +14690,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B59">
         <v>150</v>
@@ -14704,7 +14714,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="B60">
         <v>150</v>
@@ -14728,7 +14738,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="B61">
         <v>150</v>
@@ -14752,7 +14762,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="B62">
         <v>150</v>
@@ -14776,7 +14786,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="B63">
         <v>150</v>
@@ -14800,7 +14810,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B64">
         <v>200</v>
@@ -14824,7 +14834,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="B65">
         <v>200</v>
@@ -14848,7 +14858,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="B66">
         <v>200</v>
@@ -14872,7 +14882,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="B67">
         <v>200</v>
@@ -14896,7 +14906,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="B68">
         <v>200</v>
@@ -14920,7 +14930,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="B69">
         <v>200</v>
@@ -14944,7 +14954,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="B70">
         <v>200</v>
@@ -14968,7 +14978,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="B71">
         <v>200</v>
@@ -14992,7 +15002,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="B72">
         <v>200</v>
@@ -15016,7 +15026,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="B73">
         <v>200</v>
@@ -15040,7 +15050,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="B74">
         <v>200</v>
@@ -15064,7 +15074,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="B75">
         <v>250</v>
@@ -15088,7 +15098,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="B76">
         <v>250</v>
@@ -15112,7 +15122,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="B77">
         <v>250</v>
@@ -15136,7 +15146,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="B78">
         <v>250</v>
@@ -15160,7 +15170,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B79">
         <v>250</v>
@@ -15184,7 +15194,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="B80">
         <v>250</v>
@@ -15208,7 +15218,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="B81">
         <v>250</v>
@@ -15232,7 +15242,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="B82">
         <v>250</v>
@@ -15256,7 +15266,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="B83">
         <v>250</v>
@@ -15280,7 +15290,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="B84">
         <v>300</v>
@@ -15304,7 +15314,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="B85">
         <v>300</v>
@@ -15328,7 +15338,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B86">
         <v>300</v>
@@ -15352,7 +15362,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="B87">
         <v>300</v>
@@ -15376,7 +15386,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="B88">
         <v>300</v>
@@ -15400,7 +15410,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="B89">
         <v>300</v>
@@ -15424,7 +15434,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="B90">
         <v>300</v>
@@ -15448,7 +15458,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="B91">
         <v>350</v>
@@ -15472,7 +15482,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="B92">
         <v>350</v>
@@ -15496,7 +15506,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="B93">
         <v>350</v>
@@ -15520,7 +15530,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="B94">
         <v>350</v>
@@ -15544,7 +15554,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="B95">
         <v>350</v>
@@ -15568,7 +15578,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="B96">
         <v>350</v>
@@ -15592,7 +15602,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="B97">
         <v>350</v>
@@ -15616,7 +15626,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="B98">
         <v>400</v>
@@ -15640,7 +15650,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="B99">
         <v>400</v>
@@ -15664,7 +15674,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="B100">
         <v>400</v>
@@ -15688,7 +15698,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="B101">
         <v>400</v>
@@ -15712,7 +15722,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B102">
         <v>400</v>
@@ -15736,7 +15746,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="B103">
         <v>450</v>
@@ -15760,7 +15770,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="B104">
         <v>450</v>
@@ -15784,7 +15794,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="B105">
         <v>450</v>
@@ -15808,7 +15818,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="B106">
         <v>450</v>
@@ -15832,7 +15842,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="B107">
         <v>450</v>
@@ -15856,7 +15866,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="B108">
         <v>500</v>
@@ -15880,7 +15890,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B109">
         <v>500</v>
@@ -15904,7 +15914,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="B110">
         <v>500</v>
@@ -15928,7 +15938,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="B111">
         <v>500</v>
@@ -15952,7 +15962,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="B112">
         <v>500</v>
@@ -15976,7 +15986,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="B113">
         <v>550</v>
@@ -16000,7 +16010,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="B114">
         <v>550</v>
@@ -16024,7 +16034,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="B115">
         <v>550</v>
@@ -16048,7 +16058,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="B116">
         <v>550</v>
@@ -16072,7 +16082,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="B117">
         <v>600</v>
@@ -16096,7 +16106,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="B118">
         <v>600</v>
@@ -16120,7 +16130,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="B119">
         <v>600</v>
@@ -16144,7 +16154,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="B120">
         <v>650</v>
@@ -16168,7 +16178,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="B121">
         <v>650</v>
@@ -16192,7 +16202,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="B122">
         <v>650</v>
@@ -16216,7 +16226,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="B123">
         <v>650</v>
@@ -16240,7 +16250,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="B124">
         <v>700</v>
@@ -16264,7 +16274,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="B125">
         <v>700</v>
@@ -16288,7 +16298,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="B126">
         <v>700</v>
@@ -16312,7 +16322,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="B127">
         <v>750</v>
@@ -16336,7 +16346,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="B128">
         <v>750</v>
@@ -16360,7 +16370,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="B129">
         <v>750</v>
@@ -16384,7 +16394,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B130">
         <v>800</v>
@@ -16408,7 +16418,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="B131">
         <v>800</v>
@@ -16432,7 +16442,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="B132">
         <v>800</v>
@@ -16456,7 +16466,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="B133">
         <v>850</v>
@@ -16480,7 +16490,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B134">
         <v>850</v>
@@ -16504,7 +16514,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="B135">
         <v>900</v>
@@ -16528,7 +16538,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="B136">
         <v>900</v>
@@ -16552,7 +16562,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="B137">
         <v>900</v>
@@ -16576,7 +16586,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="B138">
         <v>950</v>
@@ -16600,7 +16610,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="B139">
         <v>950</v>
@@ -16624,7 +16634,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="B140">
         <v>1000</v>
@@ -16648,7 +16658,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="B141">
         <v>1000</v>
@@ -16672,7 +16682,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="B142">
         <v>1050</v>
@@ -16696,7 +16706,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="B143">
         <v>1050</v>
@@ -16720,7 +16730,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="B144">
         <v>1050</v>
@@ -16744,7 +16754,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="B145">
         <v>1100</v>
@@ -16768,7 +16778,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="B146">
         <v>1100</v>
@@ -16792,7 +16802,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="B147">
         <v>1150</v>
@@ -16816,7 +16826,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="B148">
         <v>1150</v>
@@ -16840,7 +16850,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="B149">
         <v>1200</v>
@@ -16864,7 +16874,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="B150">
         <v>1250</v>
@@ -16888,7 +16898,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="B151">
         <v>1250</v>
@@ -16912,7 +16922,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="B152">
         <v>1300</v>
@@ -16936,7 +16946,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="B153">
         <v>1300</v>
@@ -16960,7 +16970,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="B154">
         <v>1350</v>
@@ -16984,7 +16994,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="B155">
         <v>1350</v>
@@ -17008,7 +17018,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="B156">
         <v>1400</v>
@@ -17032,7 +17042,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="B157">
         <v>1450</v>
@@ -17056,7 +17066,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="B158">
         <v>1450</v>
@@ -17080,7 +17090,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="B159">
         <v>1500</v>
@@ -17104,7 +17114,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="B160">
         <v>1550</v>
@@ -17128,7 +17138,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="B161">
         <v>1550</v>
@@ -17152,7 +17162,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="B162">
         <v>1600</v>
@@ -17176,7 +17186,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="B163">
         <v>1650</v>
@@ -17200,7 +17210,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="B164">
         <v>1700</v>
@@ -17224,7 +17234,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="B165">
         <v>1700</v>
@@ -17248,7 +17258,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="B166">
         <v>1750</v>
@@ -17272,7 +17282,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="B167">
         <v>1800</v>
@@ -17296,7 +17306,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="B168">
         <v>1850</v>
@@ -17320,7 +17330,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="B169">
         <v>1900</v>
@@ -17344,7 +17354,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="B170">
         <v>1950</v>
@@ -17368,7 +17378,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="B171">
         <v>1950</v>
@@ -17392,7 +17402,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="B172">
         <v>2000</v>
@@ -17416,7 +17426,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="B173">
         <v>2050</v>
@@ -17440,7 +17450,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="B174">
         <v>2100</v>
@@ -17464,7 +17474,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="B175">
         <v>2150</v>
@@ -17488,7 +17498,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>284</v>
+        <v>374</v>
       </c>
       <c r="B176">
         <v>2200</v>
@@ -17512,7 +17522,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="B177">
         <v>2250</v>
@@ -17536,7 +17546,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="B178">
         <v>2300</v>
@@ -17560,7 +17570,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B179">
         <v>2350</v>
@@ -17584,7 +17594,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="B180">
         <v>2400</v>
@@ -17608,7 +17618,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="B181">
         <v>2450</v>
@@ -17632,7 +17642,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="B182">
         <v>2500</v>
@@ -17656,7 +17666,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="B183">
         <v>2600</v>
@@ -17680,7 +17690,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>292</v>
+        <v>382</v>
       </c>
       <c r="B184">
         <v>2650</v>
@@ -17704,7 +17714,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="B185">
         <v>2700</v>
@@ -17728,7 +17738,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="B186">
         <v>2750</v>
@@ -17752,7 +17762,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="B187">
         <v>2800</v>
@@ -17776,7 +17786,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>296</v>
+        <v>386</v>
       </c>
       <c r="B188">
         <v>2900</v>
@@ -17800,7 +17810,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="B189">
         <v>2950</v>
@@ -17824,7 +17834,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="B190">
         <v>3000</v>
@@ -17848,7 +17858,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="B191">
         <v>3100</v>
@@ -17872,7 +17882,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="B192">
         <v>3150</v>
@@ -17896,7 +17906,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="B193">
         <v>3250</v>
@@ -17920,7 +17930,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="B194">
         <v>3300</v>
@@ -17944,7 +17954,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="B195">
         <v>3350</v>
@@ -17968,7 +17978,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="B196">
         <v>3450</v>
@@ -17992,7 +18002,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="B197">
         <v>3550</v>
@@ -18016,7 +18026,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="B198">
         <v>3600</v>
@@ -18040,7 +18050,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="B199">
         <v>3700</v>
@@ -18064,7 +18074,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="B200">
         <v>3800</v>
@@ -18088,7 +18098,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="B201">
         <v>3850</v>
@@ -18112,7 +18122,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="B202">
         <v>3950</v>
@@ -18136,7 +18146,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="B203">
         <v>4050</v>
@@ -18160,7 +18170,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="B204">
         <v>4150</v>
@@ -18184,7 +18194,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="B205">
         <v>4250</v>
@@ -18208,7 +18218,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="B206">
         <v>4300</v>
@@ -18232,7 +18242,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B207">
         <v>4400</v>
@@ -18256,7 +18266,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="B208">
         <v>4500</v>
@@ -18280,7 +18290,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="B209">
         <v>4600</v>
@@ -18304,7 +18314,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>318</v>
+        <v>408</v>
       </c>
       <c r="B210">
         <v>4750</v>
@@ -18328,7 +18338,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="B211">
         <v>4850</v>
@@ -18352,7 +18362,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="B212">
         <v>4950</v>
@@ -18376,7 +18386,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="B213">
         <v>5050</v>
@@ -18400,7 +18410,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="B214">
         <v>5150</v>
@@ -18424,7 +18434,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="B215">
         <v>5300</v>
@@ -18448,7 +18458,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="B216">
         <v>5400</v>
@@ -18472,7 +18482,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="B217">
         <v>5550</v>
@@ -18496,7 +18506,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="B218">
         <v>5650</v>
@@ -18520,7 +18530,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="B219">
         <v>5800</v>
@@ -18544,7 +18554,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="B220">
         <v>5900</v>
@@ -18568,7 +18578,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B221">
         <v>6050</v>
@@ -18592,7 +18602,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="B222">
         <v>6200</v>
@@ -18616,7 +18626,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="B223">
         <v>6350</v>
@@ -18640,7 +18650,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="B224">
         <v>6500</v>
@@ -18664,7 +18674,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="B225">
         <v>6600</v>
@@ -18688,7 +18698,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="B226">
         <v>6750</v>
@@ -18711,22 +18721,439 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D227" s="1"/>
+      <c r="A227">
+        <v>425</v>
+      </c>
+      <c r="B227">
+        <v>6900</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ref="C227:C230" si="15">B227</f>
+        <v>6900</v>
+      </c>
+      <c r="D227" s="1">
+        <f>SUM($C$2:C227)</f>
+        <v>309600</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ref="E227:E230" si="16">B227*45</f>
+        <v>310500</v>
+      </c>
+      <c r="F227">
+        <f t="shared" ref="F227:F230" si="17">E227-D227</f>
+        <v>900</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D228" s="1"/>
+      <c r="A228">
+        <v>426</v>
+      </c>
+      <c r="B228">
+        <v>7050</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="15"/>
+        <v>7050</v>
+      </c>
+      <c r="D228" s="1">
+        <f>SUM($C$2:C228)</f>
+        <v>316650</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="16"/>
+        <v>317250</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="17"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D229" s="1"/>
+      <c r="A229">
+        <v>427</v>
+      </c>
+      <c r="B229">
+        <v>7200</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="15"/>
+        <v>7200</v>
+      </c>
+      <c r="D229" s="1">
+        <f>SUM($C$2:C229)</f>
+        <v>323850</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="16"/>
+        <v>324000</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="1"/>
+      <c r="A230">
+        <v>428</v>
+      </c>
+      <c r="B230">
+        <v>7400</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="15"/>
+        <v>7400</v>
+      </c>
+      <c r="D230" s="1">
+        <f>SUM($C$2:C230)</f>
+        <v>331250</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="16"/>
+        <v>333000</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="17"/>
+        <v>1750</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D231" s="1"/>
+      <c r="A231">
+        <v>429</v>
+      </c>
+      <c r="B231">
+        <v>7550</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:C232" si="18">B231</f>
+        <v>7550</v>
+      </c>
+      <c r="D231" s="1">
+        <f>SUM($C$2:C231)</f>
+        <v>338800</v>
+      </c>
+      <c r="E231">
+        <f t="shared" ref="E231:E232" si="19">B231*45</f>
+        <v>339750</v>
+      </c>
+      <c r="F231">
+        <f t="shared" ref="F231:F232" si="20">E231-D231</f>
+        <v>950</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="1"/>
+      <c r="A232">
+        <v>430</v>
+      </c>
+      <c r="B232">
+        <v>7750</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="18"/>
+        <v>7750</v>
+      </c>
+      <c r="D232" s="1">
+        <f>SUM($C$2:C232)</f>
+        <v>346550</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="19"/>
+        <v>348750</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="20"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>431</v>
+      </c>
+      <c r="B233">
+        <v>7900</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ref="C233:C245" si="21">B233</f>
+        <v>7900</v>
+      </c>
+      <c r="D233" s="1">
+        <f>SUM($C$2:C233)</f>
+        <v>354450</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ref="E233:E245" si="22">B233*45</f>
+        <v>355500</v>
+      </c>
+      <c r="F233">
+        <f t="shared" ref="F233:F245" si="23">E233-D233</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>432</v>
+      </c>
+      <c r="B234">
+        <v>8100</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="21"/>
+        <v>8100</v>
+      </c>
+      <c r="D234" s="1">
+        <f>SUM($C$2:C234)</f>
+        <v>362550</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="22"/>
+        <v>364500</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="23"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>433</v>
+      </c>
+      <c r="B235">
+        <v>8250</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="21"/>
+        <v>8250</v>
+      </c>
+      <c r="D235" s="1">
+        <f>SUM($C$2:C235)</f>
+        <v>370800</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="22"/>
+        <v>371250</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="23"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>434</v>
+      </c>
+      <c r="B236">
+        <v>8450</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="21"/>
+        <v>8450</v>
+      </c>
+      <c r="D236" s="1">
+        <f>SUM($C$2:C236)</f>
+        <v>379250</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="22"/>
+        <v>380250</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="23"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>435</v>
+      </c>
+      <c r="B237">
+        <v>8650</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="21"/>
+        <v>8650</v>
+      </c>
+      <c r="D237" s="1">
+        <f>SUM($C$2:C237)</f>
+        <v>387900</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="22"/>
+        <v>389250</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="23"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>436</v>
+      </c>
+      <c r="B238">
+        <v>8850</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="21"/>
+        <v>8850</v>
+      </c>
+      <c r="D238" s="1">
+        <f>SUM($C$2:C238)</f>
+        <v>396750</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="22"/>
+        <v>398250</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="23"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>437</v>
+      </c>
+      <c r="B239">
+        <v>9050</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="21"/>
+        <v>9050</v>
+      </c>
+      <c r="D239" s="1">
+        <f>SUM($C$2:C239)</f>
+        <v>405800</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="22"/>
+        <v>407250</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>438</v>
+      </c>
+      <c r="B240">
+        <v>9250</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="21"/>
+        <v>9250</v>
+      </c>
+      <c r="D240" s="1">
+        <f>SUM($C$2:C240)</f>
+        <v>415050</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="22"/>
+        <v>416250</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="23"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>439</v>
+      </c>
+      <c r="B241">
+        <v>9450</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="21"/>
+        <v>9450</v>
+      </c>
+      <c r="D241" s="1">
+        <f>SUM($C$2:C241)</f>
+        <v>424500</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="22"/>
+        <v>425250</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="23"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>440</v>
+      </c>
+      <c r="B242">
+        <v>9650</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="21"/>
+        <v>9650</v>
+      </c>
+      <c r="D242" s="1">
+        <f>SUM($C$2:C242)</f>
+        <v>434150</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="22"/>
+        <v>434250</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>441</v>
+      </c>
+      <c r="B243">
+        <v>9900</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="21"/>
+        <v>9900</v>
+      </c>
+      <c r="D243" s="1">
+        <f>SUM($C$2:C243)</f>
+        <v>444050</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="22"/>
+        <v>445500</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>442</v>
+      </c>
+      <c r="B244">
+        <v>10100</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="21"/>
+        <v>10100</v>
+      </c>
+      <c r="D244" s="1">
+        <f>SUM($C$2:C244)</f>
+        <v>454150</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="22"/>
+        <v>454500</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="23"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D245" s="1"/>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576">
@@ -29364,7 +29791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49D6B9D-9256-4031-A378-0361ABE0493B}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -30869,8 +31296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F0EFB-F27A-42A0-8A57-36EB8E4623F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193D1A0-260E-486E-AF07-7986CF4F9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -2292,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,25 +4401,172 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="1"/>
+      <c r="A88">
+        <v>136</v>
+      </c>
+      <c r="B88">
+        <v>11200</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:C94" si="6">B88</f>
+        <v>11200</v>
+      </c>
+      <c r="D88" s="1">
+        <f>SUM($C$2:C88)</f>
+        <v>167400</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ref="E88:E94" si="7">B88*15</f>
+        <v>168000</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F94" si="8">E88-D88</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="1"/>
+      <c r="A89">
+        <v>137</v>
+      </c>
+      <c r="B89">
+        <v>12000</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="D89" s="1">
+        <f>SUM($C$2:C89)</f>
+        <v>179400</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>180000</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
+      <c r="A90">
+        <v>138</v>
+      </c>
+      <c r="B90">
+        <v>12850</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>12850</v>
+      </c>
+      <c r="D90" s="1">
+        <f>SUM($C$2:C90)</f>
+        <v>192250</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>192750</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="1"/>
+      <c r="A91">
+        <v>139</v>
+      </c>
+      <c r="B91">
+        <v>13750</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>13750</v>
+      </c>
+      <c r="D91" s="1">
+        <f>SUM($C$2:C91)</f>
+        <v>206000</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>206250</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="1"/>
+      <c r="A92">
+        <v>140</v>
+      </c>
+      <c r="B92">
+        <v>14750</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>14750</v>
+      </c>
+      <c r="D92" s="1">
+        <f>SUM($C$2:C92)</f>
+        <v>220750</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>221250</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="1"/>
+      <c r="A93">
+        <v>141</v>
+      </c>
+      <c r="B93">
+        <v>15800</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>15800</v>
+      </c>
+      <c r="D93" s="1">
+        <f>SUM($C$2:C93)</f>
+        <v>236550</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>237000</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="1"/>
+      <c r="A94">
+        <v>142</v>
+      </c>
+      <c r="B94">
+        <v>16900</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>16900</v>
+      </c>
+      <c r="D94" s="1">
+        <f>SUM($C$2:C94)</f>
+        <v>253450</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>253500</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
@@ -31716,7 +31863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94701710-6E1C-4088-AAC3-D6C1248C7739}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
@@ -34187,7 +34334,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B35"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35378,8 +35525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC0D84-9460-46CC-B2AE-5F199CCF7404}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B64"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193D1A0-260E-486E-AF07-7986CF4F9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E5D352-8C3D-42AE-B6A8-563F9221D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -2292,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -6712,8 +6712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -6822,15 +6822,15 @@
         <v>1100</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I4">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>150</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>150</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>150</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>150</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>150</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>150</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>150</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>150</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>250</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>250</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>250</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>250</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>250</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>300</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>300</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>300</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>350</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>350</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>350</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>350</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>400</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>400</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>400</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>450</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B60">
         <v>450</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>450</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>500</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>500</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>550</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>550</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>600</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>600</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>650</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>650</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>700</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>700</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B72">
         <v>750</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>750</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>800</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B75">
         <v>850</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>850</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>900</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B78">
         <v>950</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B79">
         <v>1000</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>1050</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>1050</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B82">
         <v>1100</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B83">
         <v>1150</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B84">
         <v>1200</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>1250</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B86">
         <v>1300</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B87">
         <v>1350</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B88">
         <v>1400</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B89">
         <v>1500</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B90">
         <v>1550</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B91">
         <v>1600</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>1650</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B93">
         <v>1750</v>
@@ -8966,7 +8966,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B94">
         <v>1800</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B95">
         <v>1900</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B96">
         <v>1950</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B97">
         <v>2050</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>2150</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>2250</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>2300</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>2400</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>2500</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B103">
         <v>2600</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B104">
         <v>2750</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B105">
         <v>2850</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B106">
         <v>2950</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B107">
         <v>3100</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B108">
         <v>3200</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B109">
         <v>3350</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B110">
         <v>3500</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B111">
         <v>3650</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B112">
         <v>3800</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B113">
         <v>3950</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B114">
         <v>4100</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B115">
         <v>4300</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B116">
         <v>4500</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B117">
         <v>4650</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B118">
         <v>4850</v>
@@ -9566,7 +9566,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B119">
         <v>5050</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>5250</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B121">
         <v>5500</v>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B122">
         <v>5700</v>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84657386-FFD9-49BC-BCDB-092A3D861D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D49FBD-313B-47FA-B693-7CF2B6545B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="9" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="20" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -2296,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B607B23-F8B9-4811-9CBA-ED949EBFB4C0}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -38362,7 +38362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E6FCC-A7F4-40BE-AB08-87B82B6A5B77}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B197" sqref="A2:B197"/>
     </sheetView>
   </sheetViews>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D49FBD-313B-47FA-B693-7CF2B6545B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A76369-2462-4426-99D0-1D5E4478001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="20" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Box x45" sheetId="10" r:id="rId19"/>
     <sheet name="Box x45 Win 4k" sheetId="15" r:id="rId20"/>
     <sheet name="Box x45 Win 10k (use)" sheetId="21" r:id="rId21"/>
+    <sheet name="Box x45 (low budget)" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="31">
   <si>
     <t>x10</t>
   </si>
@@ -3762,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B94" sqref="A2:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,8 +10255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10308,6 +10309,9 @@
       </c>
       <c r="H2">
         <v>130</v>
+      </c>
+      <c r="I2">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -13211,8 +13215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFA0BE-7EC6-435D-A0ED-2A73F438E415}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B122"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25040,7 +25044,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B245"/>
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32970,7 +32974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76277A36-1C7D-4579-B642-BFA48C7F2592}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="M180" sqref="M180"/>
     </sheetView>
   </sheetViews>
@@ -38362,8 +38366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E6FCC-A7F4-40BE-AB08-87B82B6A5B77}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B197" sqref="A2:B197"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43739,6 +43743,5909 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D232" s="1"/>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28120C8C-92F6-4DCB-8D3A-83EB287078C5}">
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B244" sqref="A2:B244"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM($C$2:C2)</f>
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <f>B2*45</f>
+        <v>2250</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>2200</v>
+      </c>
+      <c r="H2">
+        <v>322</v>
+      </c>
+      <c r="I2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>195</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM($C$2:C3)</f>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">B3*45</f>
+        <v>2250</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">E3-D3</f>
+        <v>2150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>196</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM($C$2:C4)</f>
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="I4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM($C$2:C5)</f>
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>198</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM($C$2:C6)</f>
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM($C$2:C7)</f>
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM($C$2:C8)</f>
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM($C$2:C9)</f>
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM($C$2:C10)</f>
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>203</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM($C$2:C11)</f>
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM($C$2:C12)</f>
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>205</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM($C$2:C13)</f>
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>206</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM($C$2:C14)</f>
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>207</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM($C$2:C15)</f>
+        <v>700</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>208</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM($C$2:C16)</f>
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>209</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM($C$2:C17)</f>
+        <v>800</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>210</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM($C$2:C18)</f>
+        <v>850</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>211</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM($C$2:C19)</f>
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>212</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM($C$2:C20)</f>
+        <v>950</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>213</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM($C$2:C21)</f>
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>214</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM($C$2:C22)</f>
+        <v>1050</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>215</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM($C$2:C23)</f>
+        <v>1100</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>216</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM($C$2:C24)</f>
+        <v>1150</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>217</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM($C$2:C25)</f>
+        <v>1200</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>218</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM($C$2:C26)</f>
+        <v>1250</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>219</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM($C$2:C27)</f>
+        <v>1300</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>220</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM($C$2:C28)</f>
+        <v>1350</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>221</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM($C$2:C29)</f>
+        <v>1400</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>222</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM($C$2:C30)</f>
+        <v>1450</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>223</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM($C$2:C31)</f>
+        <v>1500</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>224</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM($C$2:C32)</f>
+        <v>1550</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>225</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM($C$2:C33)</f>
+        <v>1600</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>226</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM($C$2:C34)</f>
+        <v>1650</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>227</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM($C$2:C35)</f>
+        <v>1700</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>228</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUM($C$2:C36)</f>
+        <v>1750</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>229</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM($C$2:C37)</f>
+        <v>1850</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>230</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM($C$2:C38)</f>
+        <v>1950</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>231</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM($C$2:C39)</f>
+        <v>2050</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>232</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM($C$2:C40)</f>
+        <v>2150</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>233</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D41" s="1">
+        <f>SUM($C$2:C41)</f>
+        <v>2250</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>234</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <f>SUM($C$2:C42)</f>
+        <v>2350</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>235</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D43" s="1">
+        <f>SUM($C$2:C43)</f>
+        <v>2450</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D44" s="1">
+        <f>SUM($C$2:C44)</f>
+        <v>2550</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>237</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <f>SUM($C$2:C45)</f>
+        <v>2650</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>238</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D46" s="1">
+        <f>SUM($C$2:C46)</f>
+        <v>2750</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>239</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D47" s="1">
+        <f>SUM($C$2:C47)</f>
+        <v>2850</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>240</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D48" s="1">
+        <f>SUM($C$2:C48)</f>
+        <v>2950</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>241</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM($C$2:C49)</f>
+        <v>3050</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>242</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <f>SUM($C$2:C50)</f>
+        <v>3150</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>243</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SUM($C$2:C51)</f>
+        <v>3250</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>244</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D52" s="1">
+        <f>SUM($C$2:C52)</f>
+        <v>3350</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>245</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM($C$2:C53)</f>
+        <v>3450</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>246</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D54" s="1">
+        <f>SUM($C$2:C54)</f>
+        <v>3550</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>247</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D55" s="1">
+        <f>SUM($C$2:C55)</f>
+        <v>3650</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>248</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D56" s="1">
+        <f>SUM($C$2:C56)</f>
+        <v>3750</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>249</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM($C$2:C57)</f>
+        <v>3850</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <f>SUM($C$2:C58)</f>
+        <v>3950</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>251</v>
+      </c>
+      <c r="B59">
+        <v>150</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D59" s="1">
+        <f>SUM($C$2:C59)</f>
+        <v>4100</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>252</v>
+      </c>
+      <c r="B60">
+        <v>150</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D60" s="1">
+        <f>SUM($C$2:C60)</f>
+        <v>4250</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>253</v>
+      </c>
+      <c r="B61">
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D61" s="1">
+        <f>SUM($C$2:C61)</f>
+        <v>4400</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>254</v>
+      </c>
+      <c r="B62">
+        <v>150</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D62" s="1">
+        <f>SUM($C$2:C62)</f>
+        <v>4550</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>255</v>
+      </c>
+      <c r="B63">
+        <v>150</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D63" s="1">
+        <f>SUM($C$2:C63)</f>
+        <v>4700</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>256</v>
+      </c>
+      <c r="B64">
+        <v>150</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D64" s="1">
+        <f>SUM($C$2:C64)</f>
+        <v>4850</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>257</v>
+      </c>
+      <c r="B65">
+        <v>150</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D65" s="1">
+        <f>SUM($C$2:C65)</f>
+        <v>5000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>258</v>
+      </c>
+      <c r="B66">
+        <v>150</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D66" s="1">
+        <f>SUM($C$2:C66)</f>
+        <v>5150</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>259</v>
+      </c>
+      <c r="B67">
+        <v>150</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="3">B67</f>
+        <v>150</v>
+      </c>
+      <c r="D67" s="1">
+        <f>SUM($C$2:C67)</f>
+        <v>5300</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="4">B67*45</f>
+        <v>6750</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="5">E67-D67</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>260</v>
+      </c>
+      <c r="B68">
+        <v>150</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D68" s="1">
+        <f>SUM($C$2:C68)</f>
+        <v>5450</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>261</v>
+      </c>
+      <c r="B69">
+        <v>150</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D69" s="1">
+        <f>SUM($C$2:C69)</f>
+        <v>5600</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>262</v>
+      </c>
+      <c r="B70">
+        <v>150</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D70" s="1">
+        <f>SUM($C$2:C70)</f>
+        <v>5750</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>263</v>
+      </c>
+      <c r="B71">
+        <v>150</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D71" s="1">
+        <f>SUM($C$2:C71)</f>
+        <v>5900</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>264</v>
+      </c>
+      <c r="B72">
+        <v>150</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D72" s="1">
+        <f>SUM($C$2:C72)</f>
+        <v>6050</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>265</v>
+      </c>
+      <c r="B73">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D73" s="1">
+        <f>SUM($C$2:C73)</f>
+        <v>6200</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>266</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D74" s="1">
+        <f>SUM($C$2:C74)</f>
+        <v>6400</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>267</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D75" s="1">
+        <f>SUM($C$2:C75)</f>
+        <v>6600</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>268</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D76" s="1">
+        <f>SUM($C$2:C76)</f>
+        <v>6800</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>269</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D77" s="1">
+        <f>SUM($C$2:C77)</f>
+        <v>7000</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>270</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D78" s="1">
+        <f>SUM($C$2:C78)</f>
+        <v>7200</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>271</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D79" s="1">
+        <f>SUM($C$2:C79)</f>
+        <v>7400</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>272</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D80" s="1">
+        <f>SUM($C$2:C80)</f>
+        <v>7600</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>273</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D81" s="1">
+        <f>SUM($C$2:C81)</f>
+        <v>7800</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>274</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D82" s="1">
+        <f>SUM($C$2:C82)</f>
+        <v>8000</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>275</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D83" s="1">
+        <f>SUM($C$2:C83)</f>
+        <v>8200</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>276</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D84" s="1">
+        <f>SUM($C$2:C84)</f>
+        <v>8400</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>277</v>
+      </c>
+      <c r="B85">
+        <v>250</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D85" s="1">
+        <f>SUM($C$2:C85)</f>
+        <v>8650</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>278</v>
+      </c>
+      <c r="B86">
+        <v>250</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D86" s="1">
+        <f>SUM($C$2:C86)</f>
+        <v>8900</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>279</v>
+      </c>
+      <c r="B87">
+        <v>250</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D87" s="1">
+        <f>SUM($C$2:C87)</f>
+        <v>9150</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>280</v>
+      </c>
+      <c r="B88">
+        <v>250</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D88" s="1">
+        <f>SUM($C$2:C88)</f>
+        <v>9400</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>281</v>
+      </c>
+      <c r="B89">
+        <v>250</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D89" s="1">
+        <f>SUM($C$2:C89)</f>
+        <v>9650</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>282</v>
+      </c>
+      <c r="B90">
+        <v>250</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D90" s="1">
+        <f>SUM($C$2:C90)</f>
+        <v>9900</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>283</v>
+      </c>
+      <c r="B91">
+        <v>250</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D91" s="1">
+        <f>SUM($C$2:C91)</f>
+        <v>10150</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>284</v>
+      </c>
+      <c r="B92">
+        <v>250</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D92" s="1">
+        <f>SUM($C$2:C92)</f>
+        <v>10400</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>285</v>
+      </c>
+      <c r="B93">
+        <v>250</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="D93" s="1">
+        <f>SUM($C$2:C93)</f>
+        <v>10650</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>286</v>
+      </c>
+      <c r="B94">
+        <v>300</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D94" s="1">
+        <f>SUM($C$2:C94)</f>
+        <v>10950</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>287</v>
+      </c>
+      <c r="B95">
+        <v>300</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D95" s="1">
+        <f>SUM($C$2:C95)</f>
+        <v>11250</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>288</v>
+      </c>
+      <c r="B96">
+        <v>300</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D96" s="1">
+        <f>SUM($C$2:C96)</f>
+        <v>11550</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>289</v>
+      </c>
+      <c r="B97">
+        <v>300</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D97" s="1">
+        <f>SUM($C$2:C97)</f>
+        <v>11850</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>290</v>
+      </c>
+      <c r="B98">
+        <v>300</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D98" s="1">
+        <f>SUM($C$2:C98)</f>
+        <v>12150</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>291</v>
+      </c>
+      <c r="B99">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D99" s="1">
+        <f>SUM($C$2:C99)</f>
+        <v>12450</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>292</v>
+      </c>
+      <c r="B100">
+        <v>300</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D100" s="1">
+        <f>SUM($C$2:C100)</f>
+        <v>12750</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>293</v>
+      </c>
+      <c r="B101">
+        <v>350</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D101" s="1">
+        <f>SUM($C$2:C101)</f>
+        <v>13100</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>294</v>
+      </c>
+      <c r="B102">
+        <v>350</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D102" s="1">
+        <f>SUM($C$2:C102)</f>
+        <v>13450</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>295</v>
+      </c>
+      <c r="B103">
+        <v>350</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D103" s="1">
+        <f>SUM($C$2:C103)</f>
+        <v>13800</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>296</v>
+      </c>
+      <c r="B104">
+        <v>350</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D104" s="1">
+        <f>SUM($C$2:C104)</f>
+        <v>14150</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>297</v>
+      </c>
+      <c r="B105">
+        <v>350</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D105" s="1">
+        <f>SUM($C$2:C105)</f>
+        <v>14500</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>298</v>
+      </c>
+      <c r="B106">
+        <v>350</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D106" s="1">
+        <f>SUM($C$2:C106)</f>
+        <v>14850</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>299</v>
+      </c>
+      <c r="B107">
+        <v>350</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="D107" s="1">
+        <f>SUM($C$2:C107)</f>
+        <v>15200</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>15750</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>300</v>
+      </c>
+      <c r="B108">
+        <v>400</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D108" s="1">
+        <f>SUM($C$2:C108)</f>
+        <v>15600</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>301</v>
+      </c>
+      <c r="B109">
+        <v>400</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D109" s="1">
+        <f>SUM($C$2:C109)</f>
+        <v>16000</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>302</v>
+      </c>
+      <c r="B110">
+        <v>400</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D110" s="1">
+        <f>SUM($C$2:C110)</f>
+        <v>16400</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>303</v>
+      </c>
+      <c r="B111">
+        <v>400</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D111" s="1">
+        <f>SUM($C$2:C111)</f>
+        <v>16800</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>304</v>
+      </c>
+      <c r="B112">
+        <v>400</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D112" s="1">
+        <f>SUM($C$2:C112)</f>
+        <v>17200</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>305</v>
+      </c>
+      <c r="B113">
+        <v>450</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="D113" s="1">
+        <f>SUM($C$2:C113)</f>
+        <v>17650</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>20250</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>306</v>
+      </c>
+      <c r="B114">
+        <v>450</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="D114" s="1">
+        <f>SUM($C$2:C114)</f>
+        <v>18100</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>20250</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>307</v>
+      </c>
+      <c r="B115">
+        <v>450</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="D115" s="1">
+        <f>SUM($C$2:C115)</f>
+        <v>18550</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>20250</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>308</v>
+      </c>
+      <c r="B116">
+        <v>450</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="D116" s="1">
+        <f>SUM($C$2:C116)</f>
+        <v>19000</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>20250</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>309</v>
+      </c>
+      <c r="B117">
+        <v>450</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="D117" s="1">
+        <f>SUM($C$2:C117)</f>
+        <v>19450</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>20250</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>310</v>
+      </c>
+      <c r="B118">
+        <v>500</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D118" s="1">
+        <f>SUM($C$2:C118)</f>
+        <v>19950</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>311</v>
+      </c>
+      <c r="B119">
+        <v>500</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D119" s="1">
+        <f>SUM($C$2:C119)</f>
+        <v>20450</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>312</v>
+      </c>
+      <c r="B120">
+        <v>500</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D120" s="1">
+        <f>SUM($C$2:C120)</f>
+        <v>20950</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>313</v>
+      </c>
+      <c r="B121">
+        <v>500</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D121" s="1">
+        <f>SUM($C$2:C121)</f>
+        <v>21450</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>314</v>
+      </c>
+      <c r="B122">
+        <v>500</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D122" s="1">
+        <f>SUM($C$2:C122)</f>
+        <v>21950</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>315</v>
+      </c>
+      <c r="B123">
+        <v>550</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="D123" s="1">
+        <f>SUM($C$2:C123)</f>
+        <v>22500</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>24750</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="5"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>316</v>
+      </c>
+      <c r="B124">
+        <v>550</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="D124" s="1">
+        <f>SUM($C$2:C124)</f>
+        <v>23050</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>24750</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>317</v>
+      </c>
+      <c r="B125">
+        <v>550</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="D125" s="1">
+        <f>SUM($C$2:C125)</f>
+        <v>23600</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>24750</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="5"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>318</v>
+      </c>
+      <c r="B126">
+        <v>550</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="D126" s="1">
+        <f>SUM($C$2:C126)</f>
+        <v>24150</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>24750</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>319</v>
+      </c>
+      <c r="B127">
+        <v>600</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D127" s="1">
+        <f>SUM($C$2:C127)</f>
+        <v>24750</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>27000</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="5"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>320</v>
+      </c>
+      <c r="B128">
+        <v>600</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D128" s="1">
+        <f>SUM($C$2:C128)</f>
+        <v>25350</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>27000</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>321</v>
+      </c>
+      <c r="B129">
+        <v>600</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D129" s="1">
+        <f>SUM($C$2:C129)</f>
+        <v>25950</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>27000</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>322</v>
+      </c>
+      <c r="B130">
+        <v>650</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="D130" s="1">
+        <f>SUM($C$2:C130)</f>
+        <v>26600</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>29250</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="5"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>323</v>
+      </c>
+      <c r="B131">
+        <v>650</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="6">B131</f>
+        <v>650</v>
+      </c>
+      <c r="D131" s="1">
+        <f>SUM($C$2:C131)</f>
+        <v>27250</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="7">B131*45</f>
+        <v>29250</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="8">E131-D131</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>324</v>
+      </c>
+      <c r="B132">
+        <v>650</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="D132" s="1">
+        <f>SUM($C$2:C132)</f>
+        <v>27900</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="7"/>
+        <v>29250</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="8"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>325</v>
+      </c>
+      <c r="B133">
+        <v>650</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="D133" s="1">
+        <f>SUM($C$2:C133)</f>
+        <v>28550</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="7"/>
+        <v>29250</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>326</v>
+      </c>
+      <c r="B134">
+        <v>700</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="D134" s="1">
+        <f>SUM($C$2:C134)</f>
+        <v>29250</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="7"/>
+        <v>31500</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>327</v>
+      </c>
+      <c r="B135">
+        <v>700</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="D135" s="1">
+        <f>SUM($C$2:C135)</f>
+        <v>29950</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="7"/>
+        <v>31500</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>328</v>
+      </c>
+      <c r="B136">
+        <v>700</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="D136" s="1">
+        <f>SUM($C$2:C136)</f>
+        <v>30650</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="7"/>
+        <v>31500</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>329</v>
+      </c>
+      <c r="B137">
+        <v>750</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="D137" s="1">
+        <f>SUM($C$2:C137)</f>
+        <v>31400</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="7"/>
+        <v>33750</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>330</v>
+      </c>
+      <c r="B138">
+        <v>750</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="D138" s="1">
+        <f>SUM($C$2:C138)</f>
+        <v>32150</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="7"/>
+        <v>33750</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>331</v>
+      </c>
+      <c r="B139">
+        <v>750</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="D139" s="1">
+        <f>SUM($C$2:C139)</f>
+        <v>32900</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="7"/>
+        <v>33750</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>332</v>
+      </c>
+      <c r="B140">
+        <v>800</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="D140" s="1">
+        <f>SUM($C$2:C140)</f>
+        <v>33700</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="7"/>
+        <v>36000</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>333</v>
+      </c>
+      <c r="B141">
+        <v>800</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="D141" s="1">
+        <f>SUM($C$2:C141)</f>
+        <v>34500</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="7"/>
+        <v>36000</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>334</v>
+      </c>
+      <c r="B142">
+        <v>800</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="D142" s="1">
+        <f>SUM($C$2:C142)</f>
+        <v>35300</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="7"/>
+        <v>36000</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>335</v>
+      </c>
+      <c r="B143">
+        <v>850</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="D143" s="1">
+        <f>SUM($C$2:C143)</f>
+        <v>36150</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="7"/>
+        <v>38250</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>336</v>
+      </c>
+      <c r="B144">
+        <v>850</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="D144" s="1">
+        <f>SUM($C$2:C144)</f>
+        <v>37000</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>38250</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>337</v>
+      </c>
+      <c r="B145">
+        <v>900</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="D145" s="1">
+        <f>SUM($C$2:C145)</f>
+        <v>37900</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="7"/>
+        <v>40500</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="8"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>338</v>
+      </c>
+      <c r="B146">
+        <v>900</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="D146" s="1">
+        <f>SUM($C$2:C146)</f>
+        <v>38800</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>40500</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="8"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>339</v>
+      </c>
+      <c r="B147">
+        <v>900</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="D147" s="1">
+        <f>SUM($C$2:C147)</f>
+        <v>39700</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>40500</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>340</v>
+      </c>
+      <c r="B148">
+        <v>950</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="6"/>
+        <v>950</v>
+      </c>
+      <c r="D148" s="1">
+        <f>SUM($C$2:C148)</f>
+        <v>40650</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="7"/>
+        <v>42750</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="8"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>341</v>
+      </c>
+      <c r="B149">
+        <v>950</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="6"/>
+        <v>950</v>
+      </c>
+      <c r="D149" s="1">
+        <f>SUM($C$2:C149)</f>
+        <v>41600</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="7"/>
+        <v>42750</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="8"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>342</v>
+      </c>
+      <c r="B150">
+        <v>1000</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="D150" s="1">
+        <f>SUM($C$2:C150)</f>
+        <v>42600</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="7"/>
+        <v>45000</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>343</v>
+      </c>
+      <c r="B151">
+        <v>1000</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="D151" s="1">
+        <f>SUM($C$2:C151)</f>
+        <v>43600</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="7"/>
+        <v>45000</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="8"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>344</v>
+      </c>
+      <c r="B152">
+        <v>1050</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D152" s="1">
+        <f>SUM($C$2:C152)</f>
+        <v>44650</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="7"/>
+        <v>47250</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="8"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>345</v>
+      </c>
+      <c r="B153">
+        <v>1050</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D153" s="1">
+        <f>SUM($C$2:C153)</f>
+        <v>45700</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="7"/>
+        <v>47250</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>346</v>
+      </c>
+      <c r="B154">
+        <v>1050</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D154" s="1">
+        <f>SUM($C$2:C154)</f>
+        <v>46750</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="7"/>
+        <v>47250</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>347</v>
+      </c>
+      <c r="B155">
+        <v>1100</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="6"/>
+        <v>1100</v>
+      </c>
+      <c r="D155" s="1">
+        <f>SUM($C$2:C155)</f>
+        <v>47850</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="7"/>
+        <v>49500</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>348</v>
+      </c>
+      <c r="B156">
+        <v>1100</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="6"/>
+        <v>1100</v>
+      </c>
+      <c r="D156" s="1">
+        <f>SUM($C$2:C156)</f>
+        <v>48950</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="7"/>
+        <v>49500</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>349</v>
+      </c>
+      <c r="B157">
+        <v>1150</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="6"/>
+        <v>1150</v>
+      </c>
+      <c r="D157" s="1">
+        <f>SUM($C$2:C157)</f>
+        <v>50100</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="7"/>
+        <v>51750</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="8"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>350</v>
+      </c>
+      <c r="B158">
+        <v>1150</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="6"/>
+        <v>1150</v>
+      </c>
+      <c r="D158" s="1">
+        <f>SUM($C$2:C158)</f>
+        <v>51250</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="7"/>
+        <v>51750</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>351</v>
+      </c>
+      <c r="B159">
+        <v>1200</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="D159" s="1">
+        <f>SUM($C$2:C159)</f>
+        <v>52450</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="7"/>
+        <v>54000</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>352</v>
+      </c>
+      <c r="B160">
+        <v>1250</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="6"/>
+        <v>1250</v>
+      </c>
+      <c r="D160" s="1">
+        <f>SUM($C$2:C160)</f>
+        <v>53700</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="7"/>
+        <v>56250</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="8"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>353</v>
+      </c>
+      <c r="B161">
+        <v>1250</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="6"/>
+        <v>1250</v>
+      </c>
+      <c r="D161" s="1">
+        <f>SUM($C$2:C161)</f>
+        <v>54950</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="7"/>
+        <v>56250</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>354</v>
+      </c>
+      <c r="B162">
+        <v>1300</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="D162" s="1">
+        <f>SUM($C$2:C162)</f>
+        <v>56250</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="7"/>
+        <v>58500</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="8"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>355</v>
+      </c>
+      <c r="B163">
+        <v>1300</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="D163" s="1">
+        <f>SUM($C$2:C163)</f>
+        <v>57550</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="7"/>
+        <v>58500</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="8"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>356</v>
+      </c>
+      <c r="B164">
+        <v>1350</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="6"/>
+        <v>1350</v>
+      </c>
+      <c r="D164" s="1">
+        <f>SUM($C$2:C164)</f>
+        <v>58900</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="7"/>
+        <v>60750</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="8"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>357</v>
+      </c>
+      <c r="B165">
+        <v>1350</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="6"/>
+        <v>1350</v>
+      </c>
+      <c r="D165" s="1">
+        <f>SUM($C$2:C165)</f>
+        <v>60250</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="7"/>
+        <v>60750</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>358</v>
+      </c>
+      <c r="B166">
+        <v>1400</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="D166" s="1">
+        <f>SUM($C$2:C166)</f>
+        <v>61650</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="7"/>
+        <v>63000</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="8"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>359</v>
+      </c>
+      <c r="B167">
+        <v>1450</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="6"/>
+        <v>1450</v>
+      </c>
+      <c r="D167" s="1">
+        <f>SUM($C$2:C167)</f>
+        <v>63100</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="7"/>
+        <v>65250</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="8"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>360</v>
+      </c>
+      <c r="B168">
+        <v>1450</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="6"/>
+        <v>1450</v>
+      </c>
+      <c r="D168" s="1">
+        <f>SUM($C$2:C168)</f>
+        <v>64550</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="7"/>
+        <v>65250</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>361</v>
+      </c>
+      <c r="B169">
+        <v>1500</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="D169" s="1">
+        <f>SUM($C$2:C169)</f>
+        <v>66050</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="7"/>
+        <v>67500</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="8"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>362</v>
+      </c>
+      <c r="B170">
+        <v>1550</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="6"/>
+        <v>1550</v>
+      </c>
+      <c r="D170" s="1">
+        <f>SUM($C$2:C170)</f>
+        <v>67600</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="7"/>
+        <v>69750</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="8"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>363</v>
+      </c>
+      <c r="B171">
+        <v>1550</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="6"/>
+        <v>1550</v>
+      </c>
+      <c r="D171" s="1">
+        <f>SUM($C$2:C171)</f>
+        <v>69150</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="7"/>
+        <v>69750</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>364</v>
+      </c>
+      <c r="B172">
+        <v>1600</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="6"/>
+        <v>1600</v>
+      </c>
+      <c r="D172" s="1">
+        <f>SUM($C$2:C172)</f>
+        <v>70750</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="7"/>
+        <v>72000</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="8"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>365</v>
+      </c>
+      <c r="B173">
+        <v>1650</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="6"/>
+        <v>1650</v>
+      </c>
+      <c r="D173" s="1">
+        <f>SUM($C$2:C173)</f>
+        <v>72400</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="7"/>
+        <v>74250</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="8"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>366</v>
+      </c>
+      <c r="B174">
+        <v>1700</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="D174" s="1">
+        <f>SUM($C$2:C174)</f>
+        <v>74100</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="7"/>
+        <v>76500</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>367</v>
+      </c>
+      <c r="B175">
+        <v>1700</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="D175" s="1">
+        <f>SUM($C$2:C175)</f>
+        <v>75800</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="7"/>
+        <v>76500</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>368</v>
+      </c>
+      <c r="B176">
+        <v>1750</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="6"/>
+        <v>1750</v>
+      </c>
+      <c r="D176" s="1">
+        <f>SUM($C$2:C176)</f>
+        <v>77550</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="7"/>
+        <v>78750</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>369</v>
+      </c>
+      <c r="B177">
+        <v>1800</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="D177" s="1">
+        <f>SUM($C$2:C177)</f>
+        <v>79350</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="7"/>
+        <v>81000</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="8"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>370</v>
+      </c>
+      <c r="B178">
+        <v>1850</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="6"/>
+        <v>1850</v>
+      </c>
+      <c r="D178" s="1">
+        <f>SUM($C$2:C178)</f>
+        <v>81200</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="7"/>
+        <v>83250</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="8"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>371</v>
+      </c>
+      <c r="B179">
+        <v>1900</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
+      <c r="D179" s="1">
+        <f>SUM($C$2:C179)</f>
+        <v>83100</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="7"/>
+        <v>85500</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>372</v>
+      </c>
+      <c r="B180">
+        <v>1900</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
+      <c r="D180" s="1">
+        <f>SUM($C$2:C180)</f>
+        <v>85000</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="7"/>
+        <v>85500</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>373</v>
+      </c>
+      <c r="B181">
+        <v>1950</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="6"/>
+        <v>1950</v>
+      </c>
+      <c r="D181" s="1">
+        <f>SUM($C$2:C181)</f>
+        <v>86950</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="7"/>
+        <v>87750</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>374</v>
+      </c>
+      <c r="B182">
+        <v>2000</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="D182" s="1">
+        <f>SUM($C$2:C182)</f>
+        <v>88950</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="8"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>375</v>
+      </c>
+      <c r="B183">
+        <v>2050</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="D183" s="1">
+        <f>SUM($C$2:C183)</f>
+        <v>91000</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="7"/>
+        <v>92250</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="8"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>376</v>
+      </c>
+      <c r="B184">
+        <v>2100</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+      <c r="D184" s="1">
+        <f>SUM($C$2:C184)</f>
+        <v>93100</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="7"/>
+        <v>94500</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="8"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>377</v>
+      </c>
+      <c r="B185">
+        <v>2150</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="6"/>
+        <v>2150</v>
+      </c>
+      <c r="D185" s="1">
+        <f>SUM($C$2:C185)</f>
+        <v>95250</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="7"/>
+        <v>96750</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>378</v>
+      </c>
+      <c r="B186">
+        <v>2200</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="D186" s="1">
+        <f>SUM($C$2:C186)</f>
+        <v>97450</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="7"/>
+        <v>99000</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>379</v>
+      </c>
+      <c r="B187">
+        <v>2250</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="6"/>
+        <v>2250</v>
+      </c>
+      <c r="D187" s="1">
+        <f>SUM($C$2:C187)</f>
+        <v>99700</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="7"/>
+        <v>101250</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>380</v>
+      </c>
+      <c r="B188">
+        <v>2300</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="6"/>
+        <v>2300</v>
+      </c>
+      <c r="D188" s="1">
+        <f>SUM($C$2:C188)</f>
+        <v>102000</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="7"/>
+        <v>103500</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>381</v>
+      </c>
+      <c r="B189">
+        <v>2350</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="6"/>
+        <v>2350</v>
+      </c>
+      <c r="D189" s="1">
+        <f>SUM($C$2:C189)</f>
+        <v>104350</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="7"/>
+        <v>105750</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="8"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>382</v>
+      </c>
+      <c r="B190">
+        <v>2400</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="D190" s="1">
+        <f>SUM($C$2:C190)</f>
+        <v>106750</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="7"/>
+        <v>108000</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="8"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>383</v>
+      </c>
+      <c r="B191">
+        <v>2450</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="6"/>
+        <v>2450</v>
+      </c>
+      <c r="D191" s="1">
+        <f>SUM($C$2:C191)</f>
+        <v>109200</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="7"/>
+        <v>110250</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="8"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>384</v>
+      </c>
+      <c r="B192">
+        <v>2500</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="D192" s="1">
+        <f>SUM($C$2:C192)</f>
+        <v>111700</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="7"/>
+        <v>112500</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>385</v>
+      </c>
+      <c r="B193">
+        <v>2550</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="6"/>
+        <v>2550</v>
+      </c>
+      <c r="D193" s="1">
+        <f>SUM($C$2:C193)</f>
+        <v>114250</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="7"/>
+        <v>114750</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>386</v>
+      </c>
+      <c r="B194">
+        <v>2650</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="6"/>
+        <v>2650</v>
+      </c>
+      <c r="D194" s="1">
+        <f>SUM($C$2:C194)</f>
+        <v>116900</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="7"/>
+        <v>119250</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="8"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>387</v>
+      </c>
+      <c r="B195">
+        <v>2700</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C244" si="9">B195</f>
+        <v>2700</v>
+      </c>
+      <c r="D195" s="1">
+        <f>SUM($C$2:C195)</f>
+        <v>119600</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E244" si="10">B195*45</f>
+        <v>121500</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F244" si="11">E195-D195</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>388</v>
+      </c>
+      <c r="B196">
+        <v>2750</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="9"/>
+        <v>2750</v>
+      </c>
+      <c r="D196" s="1">
+        <f>SUM($C$2:C196)</f>
+        <v>122350</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="10"/>
+        <v>123750</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="11"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>389</v>
+      </c>
+      <c r="B197">
+        <v>2800</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="9"/>
+        <v>2800</v>
+      </c>
+      <c r="D197" s="1">
+        <f>SUM($C$2:C197)</f>
+        <v>125150</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="10"/>
+        <v>126000</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="11"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>390</v>
+      </c>
+      <c r="B198">
+        <v>2900</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="9"/>
+        <v>2900</v>
+      </c>
+      <c r="D198" s="1">
+        <f>SUM($C$2:C198)</f>
+        <v>128050</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="10"/>
+        <v>130500</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="11"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>391</v>
+      </c>
+      <c r="B199">
+        <v>2950</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="9"/>
+        <v>2950</v>
+      </c>
+      <c r="D199" s="1">
+        <f>SUM($C$2:C199)</f>
+        <v>131000</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="10"/>
+        <v>132750</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="11"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>392</v>
+      </c>
+      <c r="B200">
+        <v>3000</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="D200" s="1">
+        <f>SUM($C$2:C200)</f>
+        <v>134000</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>393</v>
+      </c>
+      <c r="B201">
+        <v>3100</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="9"/>
+        <v>3100</v>
+      </c>
+      <c r="D201" s="1">
+        <f>SUM($C$2:C201)</f>
+        <v>137100</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="10"/>
+        <v>139500</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>394</v>
+      </c>
+      <c r="B202">
+        <v>3150</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="9"/>
+        <v>3150</v>
+      </c>
+      <c r="D202" s="1">
+        <f>SUM($C$2:C202)</f>
+        <v>140250</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="10"/>
+        <v>141750</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>395</v>
+      </c>
+      <c r="B203">
+        <v>3200</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="D203" s="1">
+        <f>SUM($C$2:C203)</f>
+        <v>143450</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="10"/>
+        <v>144000</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="11"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>396</v>
+      </c>
+      <c r="B204">
+        <v>3300</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="9"/>
+        <v>3300</v>
+      </c>
+      <c r="D204" s="1">
+        <f>SUM($C$2:C204)</f>
+        <v>146750</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="10"/>
+        <v>148500</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="11"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>397</v>
+      </c>
+      <c r="B205">
+        <v>3350</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="9"/>
+        <v>3350</v>
+      </c>
+      <c r="D205" s="1">
+        <f>SUM($C$2:C205)</f>
+        <v>150100</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="10"/>
+        <v>150750</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="11"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>398</v>
+      </c>
+      <c r="B206">
+        <v>3450</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="9"/>
+        <v>3450</v>
+      </c>
+      <c r="D206" s="1">
+        <f>SUM($C$2:C206)</f>
+        <v>153550</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="10"/>
+        <v>155250</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="11"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>399</v>
+      </c>
+      <c r="B207">
+        <v>3550</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="9"/>
+        <v>3550</v>
+      </c>
+      <c r="D207" s="1">
+        <f>SUM($C$2:C207)</f>
+        <v>157100</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="10"/>
+        <v>159750</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="11"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>400</v>
+      </c>
+      <c r="B208">
+        <v>3600</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="9"/>
+        <v>3600</v>
+      </c>
+      <c r="D208" s="1">
+        <f>SUM($C$2:C208)</f>
+        <v>160700</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="10"/>
+        <v>162000</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="11"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>401</v>
+      </c>
+      <c r="B209">
+        <v>3700</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="9"/>
+        <v>3700</v>
+      </c>
+      <c r="D209" s="1">
+        <f>SUM($C$2:C209)</f>
+        <v>164400</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="10"/>
+        <v>166500</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="11"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>402</v>
+      </c>
+      <c r="B210">
+        <v>3750</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="9"/>
+        <v>3750</v>
+      </c>
+      <c r="D210" s="1">
+        <f>SUM($C$2:C210)</f>
+        <v>168150</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="10"/>
+        <v>168750</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>403</v>
+      </c>
+      <c r="B211">
+        <v>3850</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="9"/>
+        <v>3850</v>
+      </c>
+      <c r="D211" s="1">
+        <f>SUM($C$2:C211)</f>
+        <v>172000</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="10"/>
+        <v>173250</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="11"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>404</v>
+      </c>
+      <c r="B212">
+        <v>3950</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="9"/>
+        <v>3950</v>
+      </c>
+      <c r="D212" s="1">
+        <f>SUM($C$2:C212)</f>
+        <v>175950</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="10"/>
+        <v>177750</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>405</v>
+      </c>
+      <c r="B213">
+        <v>4050</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="9"/>
+        <v>4050</v>
+      </c>
+      <c r="D213" s="1">
+        <f>SUM($C$2:C213)</f>
+        <v>180000</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="10"/>
+        <v>182250</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="11"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>406</v>
+      </c>
+      <c r="B214">
+        <v>4150</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="9"/>
+        <v>4150</v>
+      </c>
+      <c r="D214" s="1">
+        <f>SUM($C$2:C214)</f>
+        <v>184150</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="10"/>
+        <v>186750</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="11"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>407</v>
+      </c>
+      <c r="B215">
+        <v>4200</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="9"/>
+        <v>4200</v>
+      </c>
+      <c r="D215" s="1">
+        <f>SUM($C$2:C215)</f>
+        <v>188350</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="10"/>
+        <v>189000</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="11"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>408</v>
+      </c>
+      <c r="B216">
+        <v>4300</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="9"/>
+        <v>4300</v>
+      </c>
+      <c r="D216" s="1">
+        <f>SUM($C$2:C216)</f>
+        <v>192650</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="10"/>
+        <v>193500</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="11"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>409</v>
+      </c>
+      <c r="B217">
+        <v>4400</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
+      <c r="D217" s="1">
+        <f>SUM($C$2:C217)</f>
+        <v>197050</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="10"/>
+        <v>198000</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="11"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>410</v>
+      </c>
+      <c r="B218">
+        <v>4500</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="D218" s="1">
+        <f>SUM($C$2:C218)</f>
+        <v>201550</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="10"/>
+        <v>202500</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="11"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>411</v>
+      </c>
+      <c r="B219">
+        <v>4600</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="9"/>
+        <v>4600</v>
+      </c>
+      <c r="D219" s="1">
+        <f>SUM($C$2:C219)</f>
+        <v>206150</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="10"/>
+        <v>207000</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="11"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>412</v>
+      </c>
+      <c r="B220">
+        <v>4700</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="9"/>
+        <v>4700</v>
+      </c>
+      <c r="D220" s="1">
+        <f>SUM($C$2:C220)</f>
+        <v>210850</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="10"/>
+        <v>211500</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="11"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>413</v>
+      </c>
+      <c r="B221">
+        <v>4850</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="9"/>
+        <v>4850</v>
+      </c>
+      <c r="D221" s="1">
+        <f>SUM($C$2:C221)</f>
+        <v>215700</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="10"/>
+        <v>218250</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="11"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>414</v>
+      </c>
+      <c r="B222">
+        <v>4950</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="9"/>
+        <v>4950</v>
+      </c>
+      <c r="D222" s="1">
+        <f>SUM($C$2:C222)</f>
+        <v>220650</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="10"/>
+        <v>222750</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="11"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>415</v>
+      </c>
+      <c r="B223">
+        <v>5050</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="9"/>
+        <v>5050</v>
+      </c>
+      <c r="D223" s="1">
+        <f>SUM($C$2:C223)</f>
+        <v>225700</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="10"/>
+        <v>227250</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="11"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>416</v>
+      </c>
+      <c r="B224">
+        <v>5150</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="9"/>
+        <v>5150</v>
+      </c>
+      <c r="D224" s="1">
+        <f>SUM($C$2:C224)</f>
+        <v>230850</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="10"/>
+        <v>231750</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>417</v>
+      </c>
+      <c r="B225">
+        <v>5300</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="9"/>
+        <v>5300</v>
+      </c>
+      <c r="D225" s="1">
+        <f>SUM($C$2:C225)</f>
+        <v>236150</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="10"/>
+        <v>238500</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="11"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>418</v>
+      </c>
+      <c r="B226">
+        <v>5400</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="9"/>
+        <v>5400</v>
+      </c>
+      <c r="D226" s="1">
+        <f>SUM($C$2:C226)</f>
+        <v>241550</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="10"/>
+        <v>243000</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="11"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>419</v>
+      </c>
+      <c r="B227">
+        <v>5550</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="9"/>
+        <v>5550</v>
+      </c>
+      <c r="D227" s="1">
+        <f>SUM($C$2:C227)</f>
+        <v>247100</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="10"/>
+        <v>249750</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="11"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>420</v>
+      </c>
+      <c r="B228">
+        <v>5650</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="9"/>
+        <v>5650</v>
+      </c>
+      <c r="D228" s="1">
+        <f>SUM($C$2:C228)</f>
+        <v>252750</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="10"/>
+        <v>254250</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>421</v>
+      </c>
+      <c r="B229">
+        <v>5800</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="9"/>
+        <v>5800</v>
+      </c>
+      <c r="D229" s="1">
+        <f>SUM($C$2:C229)</f>
+        <v>258550</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="10"/>
+        <v>261000</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="11"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>422</v>
+      </c>
+      <c r="B230">
+        <v>5900</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="9"/>
+        <v>5900</v>
+      </c>
+      <c r="D230" s="1">
+        <f>SUM($C$2:C230)</f>
+        <v>264450</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="10"/>
+        <v>265500</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="11"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>423</v>
+      </c>
+      <c r="B231">
+        <v>6050</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="9"/>
+        <v>6050</v>
+      </c>
+      <c r="D231" s="1">
+        <f>SUM($C$2:C231)</f>
+        <v>270500</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="10"/>
+        <v>272250</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="11"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>424</v>
+      </c>
+      <c r="B232">
+        <v>6200</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="9"/>
+        <v>6200</v>
+      </c>
+      <c r="D232" s="1">
+        <f>SUM($C$2:C232)</f>
+        <v>276700</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="10"/>
+        <v>279000</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="11"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>425</v>
+      </c>
+      <c r="B233">
+        <v>6300</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="9"/>
+        <v>6300</v>
+      </c>
+      <c r="D233" s="1">
+        <f>SUM($C$2:C233)</f>
+        <v>283000</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="10"/>
+        <v>283500</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>426</v>
+      </c>
+      <c r="B234">
+        <v>6450</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="9"/>
+        <v>6450</v>
+      </c>
+      <c r="D234" s="1">
+        <f>SUM($C$2:C234)</f>
+        <v>289450</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="10"/>
+        <v>290250</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>427</v>
+      </c>
+      <c r="B235">
+        <v>6600</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="9"/>
+        <v>6600</v>
+      </c>
+      <c r="D235" s="1">
+        <f>SUM($C$2:C235)</f>
+        <v>296050</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="10"/>
+        <v>297000</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="11"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>428</v>
+      </c>
+      <c r="B236">
+        <v>6750</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="9"/>
+        <v>6750</v>
+      </c>
+      <c r="D236" s="1">
+        <f>SUM($C$2:C236)</f>
+        <v>302800</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="10"/>
+        <v>303750</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="11"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>429</v>
+      </c>
+      <c r="B237">
+        <v>6900</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="9"/>
+        <v>6900</v>
+      </c>
+      <c r="D237" s="1">
+        <f>SUM($C$2:C237)</f>
+        <v>309700</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="10"/>
+        <v>310500</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>430</v>
+      </c>
+      <c r="B238">
+        <v>7050</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="9"/>
+        <v>7050</v>
+      </c>
+      <c r="D238" s="1">
+        <f>SUM($C$2:C238)</f>
+        <v>316750</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="10"/>
+        <v>317250</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>431</v>
+      </c>
+      <c r="B239">
+        <v>7250</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="9"/>
+        <v>7250</v>
+      </c>
+      <c r="D239" s="1">
+        <f>SUM($C$2:C239)</f>
+        <v>324000</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="10"/>
+        <v>326250</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="11"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>432</v>
+      </c>
+      <c r="B240">
+        <v>7400</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="9"/>
+        <v>7400</v>
+      </c>
+      <c r="D240" s="1">
+        <f>SUM($C$2:C240)</f>
+        <v>331400</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="10"/>
+        <v>333000</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="11"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>433</v>
+      </c>
+      <c r="B241">
+        <v>7550</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="9"/>
+        <v>7550</v>
+      </c>
+      <c r="D241" s="1">
+        <f>SUM($C$2:C241)</f>
+        <v>338950</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="10"/>
+        <v>339750</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>434</v>
+      </c>
+      <c r="B242">
+        <v>7750</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="9"/>
+        <v>7750</v>
+      </c>
+      <c r="D242" s="1">
+        <f>SUM($C$2:C242)</f>
+        <v>346700</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="10"/>
+        <v>348750</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="11"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>435</v>
+      </c>
+      <c r="B243">
+        <v>7900</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="9"/>
+        <v>7900</v>
+      </c>
+      <c r="D243" s="1">
+        <f>SUM($C$2:C243)</f>
+        <v>354600</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="10"/>
+        <v>355500</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>436</v>
+      </c>
+      <c r="B244">
+        <v>8100</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="9"/>
+        <v>8100</v>
+      </c>
+      <c r="D244" s="1">
+        <f>SUM($C$2:C244)</f>
+        <v>362700</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="10"/>
+        <v>364500</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D245" s="1"/>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576">
@@ -47416,8 +53323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC0D84-9460-46CC-B2AE-5F199CCF7404}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A76369-2462-4426-99D0-1D5E4478001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F565134-8471-4245-8CED-7801EC528849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -3763,11 +3763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B94" sqref="A2:B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3794,7 +3797,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -3818,10 +3821,13 @@
       <c r="H2">
         <v>74</v>
       </c>
+      <c r="I2">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -3851,7 +3857,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -3881,7 +3887,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -3929,7 +3935,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -3953,7 +3959,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -3977,7 +3983,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -4001,7 +4007,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -4121,7 +4127,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -4145,7 +4151,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -4169,7 +4175,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -4193,7 +4199,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -4217,7 +4223,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>150</v>
@@ -4337,7 +4343,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>150</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>150</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>150</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -4481,7 +4487,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>250</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -4577,7 +4583,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -4601,7 +4607,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -4625,7 +4631,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -4649,7 +4655,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>350</v>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>350</v>
@@ -4697,7 +4703,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>400</v>
@@ -4721,7 +4727,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>400</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>450</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>450</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>500</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>550</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>600</v>
@@ -4865,7 +4871,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>600</v>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>650</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>700</v>
@@ -4937,7 +4943,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>750</v>
@@ -4961,7 +4967,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>800</v>
@@ -4985,7 +4991,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>850</v>
@@ -5009,7 +5015,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>950</v>
@@ -5033,7 +5039,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>1000</v>
@@ -5057,7 +5063,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>1050</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>1150</v>
@@ -5105,7 +5111,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>1250</v>
@@ -5129,7 +5135,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>1300</v>
@@ -5153,7 +5159,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>1400</v>
@@ -5177,7 +5183,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>1500</v>
@@ -5201,7 +5207,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>1600</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>1750</v>
@@ -5249,7 +5255,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B62">
         <v>1850</v>
@@ -5273,7 +5279,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>2000</v>
@@ -5297,7 +5303,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>2150</v>
@@ -5321,7 +5327,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>2300</v>
@@ -5345,7 +5351,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B66">
         <v>2450</v>
@@ -5369,7 +5375,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B67">
         <v>2650</v>
@@ -5393,7 +5399,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68">
         <v>2800</v>
@@ -5417,7 +5423,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>3000</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>3250</v>
@@ -5465,7 +5471,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>3450</v>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>3700</v>
@@ -5513,7 +5519,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>3950</v>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B74">
         <v>4250</v>
@@ -5561,7 +5567,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>4550</v>
@@ -5585,7 +5591,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>4900</v>
@@ -5609,7 +5615,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>5250</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>5600</v>
@@ -5657,7 +5663,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>6000</v>
@@ -5681,7 +5687,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>6450</v>
@@ -5705,7 +5711,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>6900</v>
@@ -5729,7 +5735,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>7400</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>7900</v>
@@ -5777,7 +5783,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>8500</v>
@@ -5801,7 +5807,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>9100</v>
@@ -5825,7 +5831,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B86">
         <v>9750</v>
@@ -5849,7 +5855,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B87">
         <v>10450</v>
@@ -5873,7 +5879,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B88">
         <v>11200</v>
@@ -5897,7 +5903,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B89">
         <v>12000</v>
@@ -5921,7 +5927,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B90">
         <v>12850</v>
@@ -5945,7 +5951,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B91">
         <v>13750</v>
@@ -5969,7 +5975,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B92">
         <v>14750</v>
@@ -5993,7 +5999,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B93">
         <v>15800</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B94">
         <v>16900</v>
@@ -10255,8 +10261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED91CD1-2069-4860-AAC1-395BF7FDC1B8}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53323,7 +53329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC0D84-9460-46CC-B2AE-5F199CCF7404}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>

--- a/diamond - lote.xlsx
+++ b/diamond - lote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Ryan\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Nimo Lottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F565134-8471-4245-8CED-7801EC528849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB864A8A-EB39-4C92-A6B5-C46D2210839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{7F355DAC-3324-4E1E-9168-B8DE0A0A07EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd Row - Win 500kc" sheetId="1" r:id="rId1"/>
@@ -3763,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B0409-2C7D-4216-B367-7A8D0DF60253}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -52137,8 +52137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F63FD-C8A7-4F2B-99BB-62768698F88D}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
